--- a/biology/Zoologie/Atrina_pectinata/Atrina_pectinata.xlsx
+++ b/biology/Zoologie/Atrina_pectinata/Atrina_pectinata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Atrina pectinata est une espèce de mollusques bivalves de la famille des Pinnidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un coquillage de grande taille, qui peut atteindre 30 cm de long, et que l'on trouve communément dans les eaux japonaises, coréennes et chinoises. On le rencontre dans des fonds marins boueux et sablonneux, et peut s'y enfouir jusqu'à 20 cm de profond[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un coquillage de grande taille, qui peut atteindre 30 cm de long, et que l'on trouve communément dans les eaux japonaises, coréennes et chinoises. On le rencontre dans des fonds marins boueux et sablonneux, et peut s'y enfouir jusqu'à 20 cm de profond.
 </t>
         </is>
       </c>
